--- a/Code/Results/Cases/Case_5_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_174/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9870534475928882</v>
+        <v>1.020574846168834</v>
       </c>
       <c r="D2">
-        <v>1.007509501796473</v>
+        <v>1.026259465027548</v>
       </c>
       <c r="E2">
-        <v>0.9952430141355162</v>
+        <v>1.02155833181374</v>
       </c>
       <c r="F2">
-        <v>0.9956659336786883</v>
+        <v>1.031506699814445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037700427994477</v>
+        <v>1.029430903032845</v>
       </c>
       <c r="J2">
-        <v>1.009628405652923</v>
+        <v>1.025771184298331</v>
       </c>
       <c r="K2">
-        <v>1.018865199394402</v>
+        <v>1.029082633784605</v>
       </c>
       <c r="L2">
-        <v>1.006769021582457</v>
+        <v>1.024395307221931</v>
       </c>
       <c r="M2">
-        <v>1.007185980999235</v>
+        <v>1.034314619661036</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9917510457121522</v>
+        <v>1.021560697842817</v>
       </c>
       <c r="D3">
-        <v>1.010897377191445</v>
+        <v>1.026984683481958</v>
       </c>
       <c r="E3">
-        <v>0.9989936078012505</v>
+        <v>1.022395848360031</v>
       </c>
       <c r="F3">
-        <v>1.001057260279524</v>
+        <v>1.03270218394147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038819207003933</v>
+        <v>1.029600306709796</v>
       </c>
       <c r="J3">
-        <v>1.012469139754825</v>
+        <v>1.026394092810483</v>
       </c>
       <c r="K3">
-        <v>1.02139269725109</v>
+        <v>1.029615551789267</v>
       </c>
       <c r="L3">
-        <v>1.009639381819827</v>
+        <v>1.025039217348184</v>
       </c>
       <c r="M3">
-        <v>1.011676631113792</v>
+        <v>1.035317645065252</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9947258126853629</v>
+        <v>1.022198891291062</v>
       </c>
       <c r="D4">
-        <v>1.013044632659777</v>
+        <v>1.027453956667276</v>
       </c>
       <c r="E4">
-        <v>1.001375023561106</v>
+        <v>1.022938399991487</v>
       </c>
       <c r="F4">
-        <v>1.004472019211938</v>
+        <v>1.033476155489049</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039516555722225</v>
+        <v>1.029708574408544</v>
       </c>
       <c r="J4">
-        <v>1.014265401746383</v>
+        <v>1.026796870787447</v>
       </c>
       <c r="K4">
-        <v>1.022988129088015</v>
+        <v>1.029959727298783</v>
       </c>
       <c r="L4">
-        <v>1.01145688154117</v>
+        <v>1.02545585119069</v>
       </c>
       <c r="M4">
-        <v>1.014516768891803</v>
+        <v>1.035966519531226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9959614574998035</v>
+        <v>1.022467254880221</v>
       </c>
       <c r="D5">
-        <v>1.013936935065405</v>
+        <v>1.027651240124347</v>
       </c>
       <c r="E5">
-        <v>1.002365677054774</v>
+        <v>1.02316663682961</v>
       </c>
       <c r="F5">
-        <v>1.005890626982512</v>
+        <v>1.033801632493445</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0398035073962</v>
+        <v>1.029753767138342</v>
       </c>
       <c r="J5">
-        <v>1.015010856540598</v>
+        <v>1.026966129773703</v>
       </c>
       <c r="K5">
-        <v>1.023649556898412</v>
+        <v>1.030104260478778</v>
       </c>
       <c r="L5">
-        <v>1.012211748301562</v>
+        <v>1.025630998866819</v>
       </c>
       <c r="M5">
-        <v>1.015695643680804</v>
+        <v>1.036239270636496</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9961680677054667</v>
+        <v>1.022512318230924</v>
       </c>
       <c r="D6">
-        <v>1.014086156367648</v>
+        <v>1.027684364915302</v>
       </c>
       <c r="E6">
-        <v>1.002531407793576</v>
+        <v>1.023204967460064</v>
       </c>
       <c r="F6">
-        <v>1.006127842978293</v>
+        <v>1.033856287353314</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039851327637189</v>
+        <v>1.029761336245072</v>
       </c>
       <c r="J6">
-        <v>1.015135462588313</v>
+        <v>1.026994545047993</v>
       </c>
       <c r="K6">
-        <v>1.023760076840829</v>
+        <v>1.030128518939313</v>
       </c>
       <c r="L6">
-        <v>1.012337962704396</v>
+        <v>1.025660406609689</v>
       </c>
       <c r="M6">
-        <v>1.015892711864622</v>
+        <v>1.036285064658478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9947423814083258</v>
+        <v>1.022202476915362</v>
       </c>
       <c r="D7">
-        <v>1.013056596075133</v>
+        <v>1.027456592775766</v>
       </c>
       <c r="E7">
-        <v>1.001388301450338</v>
+        <v>1.022941449122333</v>
       </c>
       <c r="F7">
-        <v>1.004491040438207</v>
+        <v>1.033480504137763</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039520414208981</v>
+        <v>1.02970917954565</v>
       </c>
       <c r="J7">
-        <v>1.014275400211249</v>
+        <v>1.026799132705604</v>
       </c>
       <c r="K7">
-        <v>1.022997003254398</v>
+        <v>1.029961659180674</v>
       </c>
       <c r="L7">
-        <v>1.011467003883327</v>
+        <v>1.025458191543697</v>
       </c>
       <c r="M7">
-        <v>1.01453257972651</v>
+        <v>1.03597016418495</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9886548239409194</v>
+        <v>1.02090796087583</v>
       </c>
       <c r="D8">
-        <v>1.008663970156751</v>
+        <v>1.02650455367644</v>
       </c>
       <c r="E8">
-        <v>0.996520201923956</v>
+        <v>1.021841245048126</v>
       </c>
       <c r="F8">
-        <v>0.9975036758570066</v>
+        <v>1.031910633920977</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03808411954009</v>
+        <v>1.02948843266502</v>
       </c>
       <c r="J8">
-        <v>1.010597323534681</v>
+        <v>1.025981757939122</v>
       </c>
       <c r="K8">
-        <v>1.019727847592915</v>
+        <v>1.029262871781822</v>
       </c>
       <c r="L8">
-        <v>1.007747516524208</v>
+        <v>1.024612923235103</v>
       </c>
       <c r="M8">
-        <v>1.008717567956485</v>
+        <v>1.034653627979123</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9774026081141375</v>
+        <v>1.018629028235771</v>
       </c>
       <c r="D9">
-        <v>1.000562728955666</v>
+        <v>1.024827046526448</v>
       </c>
       <c r="E9">
-        <v>0.9875750567727046</v>
+        <v>1.019907350405284</v>
       </c>
       <c r="F9">
-        <v>0.9845919096990278</v>
+        <v>1.029147469659692</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035342515232698</v>
+        <v>1.029089140896511</v>
       </c>
       <c r="J9">
-        <v>1.003779374210994</v>
+        <v>1.024539275869282</v>
       </c>
       <c r="K9">
-        <v>1.013646682868102</v>
+        <v>1.028026507940745</v>
       </c>
       <c r="L9">
-        <v>1.000872988855715</v>
+        <v>1.023123333902997</v>
       </c>
       <c r="M9">
-        <v>0.9979400190435487</v>
+        <v>1.032332564516079</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9695058050006826</v>
+        <v>1.017111215426555</v>
       </c>
       <c r="D10">
-        <v>0.9948941621080172</v>
+        <v>1.023708837850877</v>
       </c>
       <c r="E10">
-        <v>0.9813369793505167</v>
+        <v>1.018621368710492</v>
       </c>
       <c r="F10">
-        <v>0.97553009667711</v>
+        <v>1.027307447864711</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033362427247408</v>
+        <v>1.028816035772146</v>
       </c>
       <c r="J10">
-        <v>0.9989838060014194</v>
+        <v>1.0235761964207</v>
       </c>
       <c r="K10">
-        <v>1.009356220059509</v>
+        <v>1.02719893386481</v>
       </c>
       <c r="L10">
-        <v>0.9960515794518348</v>
+        <v>1.022130230277165</v>
       </c>
       <c r="M10">
-        <v>0.9903556793477885</v>
+        <v>1.030784394130465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9659822910952179</v>
+        <v>1.016454338434648</v>
       </c>
       <c r="D11">
-        <v>0.9923699827519799</v>
+        <v>1.023224683492675</v>
       </c>
       <c r="E11">
-        <v>0.978563868099856</v>
+        <v>1.018065312921483</v>
       </c>
       <c r="F11">
-        <v>0.9714859770713917</v>
+        <v>1.02651118600082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032466265333897</v>
+        <v>1.028696143035387</v>
       </c>
       <c r="J11">
-        <v>0.9968420687042154</v>
+        <v>1.023158840244996</v>
       </c>
       <c r="K11">
-        <v>1.007437238909753</v>
+        <v>1.02683980249817</v>
       </c>
       <c r="L11">
-        <v>0.9939016862011417</v>
+        <v>1.021700202067716</v>
       </c>
       <c r="M11">
-        <v>0.9869664328275647</v>
+        <v>1.030113826331614</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9646568926269168</v>
+        <v>1.016210397172966</v>
       </c>
       <c r="D12">
-        <v>0.9914213584286162</v>
+        <v>1.023044853510665</v>
       </c>
       <c r="E12">
-        <v>0.9775223656281602</v>
+        <v>1.017858887415823</v>
       </c>
       <c r="F12">
-        <v>0.9699645643596605</v>
+        <v>1.026215490224437</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032127321681329</v>
+        <v>1.028651363952704</v>
       </c>
       <c r="J12">
-        <v>0.9960361902085767</v>
+        <v>1.023003765438975</v>
       </c>
       <c r="K12">
-        <v>1.006714778072699</v>
+        <v>1.02670628753073</v>
       </c>
       <c r="L12">
-        <v>0.9930932545693654</v>
+        <v>1.021540469790147</v>
       </c>
       <c r="M12">
-        <v>0.9856907413453119</v>
+        <v>1.029864717084059</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9649419629483076</v>
+        <v>1.01626272104202</v>
       </c>
       <c r="D13">
-        <v>0.9916253503556652</v>
+        <v>1.023083427343721</v>
       </c>
       <c r="E13">
-        <v>0.9777463000331184</v>
+        <v>1.017903161018545</v>
       </c>
       <c r="F13">
-        <v>0.9702918034100857</v>
+        <v>1.026278914756068</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032200305024697</v>
+        <v>1.028660980326695</v>
       </c>
       <c r="J13">
-        <v>0.9962095310529727</v>
+        <v>1.023037031773723</v>
       </c>
       <c r="K13">
-        <v>1.006870193784234</v>
+        <v>1.026734932256741</v>
       </c>
       <c r="L13">
-        <v>0.9932671211613637</v>
+        <v>1.021574732927204</v>
       </c>
       <c r="M13">
-        <v>0.9859651570672089</v>
+        <v>1.029918153251786</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9658730778840795</v>
+        <v>1.016434173110304</v>
       </c>
       <c r="D14">
-        <v>0.9922917976452341</v>
+        <v>1.023209818552466</v>
       </c>
       <c r="E14">
-        <v>0.9784780144825256</v>
+        <v>1.018048247305572</v>
       </c>
       <c r="F14">
-        <v>0.9713606163768488</v>
+        <v>1.026486742244779</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032438373436821</v>
+        <v>1.028692446590673</v>
       </c>
       <c r="J14">
-        <v>0.9967756687956031</v>
+        <v>1.023146022733652</v>
       </c>
       <c r="K14">
-        <v>1.007377720120621</v>
+        <v>1.026828768504885</v>
       </c>
       <c r="L14">
-        <v>0.9938350654058175</v>
+        <v>1.021686998558172</v>
       </c>
       <c r="M14">
-        <v>0.9868613318703955</v>
+        <v>1.030093235508729</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9664445376831613</v>
+        <v>1.016539817295755</v>
       </c>
       <c r="D15">
-        <v>0.9927009383138675</v>
+        <v>1.02328769323592</v>
       </c>
       <c r="E15">
-        <v>0.9789273115878443</v>
+        <v>1.01813765546402</v>
       </c>
       <c r="F15">
-        <v>0.972016560215735</v>
+        <v>1.026614801050094</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032584243380076</v>
+        <v>1.028711801460543</v>
       </c>
       <c r="J15">
-        <v>0.9971230975957348</v>
+        <v>1.023213169029312</v>
       </c>
       <c r="K15">
-        <v>1.007689128242926</v>
+        <v>1.026886568549292</v>
       </c>
       <c r="L15">
-        <v>0.9941836710226111</v>
+        <v>1.021756169047472</v>
       </c>
       <c r="M15">
-        <v>0.9874112415358969</v>
+        <v>1.030201105408151</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9697373743932101</v>
+        <v>1.017154817488713</v>
       </c>
       <c r="D16">
-        <v>0.9950601686293504</v>
+        <v>1.023740970444469</v>
       </c>
       <c r="E16">
-        <v>0.9815194522427759</v>
+        <v>1.018658288859747</v>
       </c>
       <c r="F16">
-        <v>0.9757958590891627</v>
+        <v>1.027360303186138</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033421065280792</v>
+        <v>1.028823958203942</v>
       </c>
       <c r="J16">
-        <v>0.9991245264759645</v>
+        <v>1.023603887922038</v>
       </c>
       <c r="K16">
-        <v>1.009482247854269</v>
+        <v>1.027222751710706</v>
       </c>
       <c r="L16">
-        <v>0.9961929068351468</v>
+        <v>1.022158769713194</v>
       </c>
       <c r="M16">
-        <v>0.9905783152627048</v>
+        <v>1.030828893255118</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9717743453801788</v>
+        <v>1.01754068357344</v>
       </c>
       <c r="D17">
-        <v>0.9965210162672095</v>
+        <v>1.024025309896808</v>
       </c>
       <c r="E17">
-        <v>0.983125731086398</v>
+        <v>1.018985078548248</v>
       </c>
       <c r="F17">
-        <v>0.9781335081051448</v>
+        <v>1.027828064891659</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033935434900739</v>
+        <v>1.028893873242118</v>
       </c>
       <c r="J17">
-        <v>1.000362137337078</v>
+        <v>1.023848885776897</v>
       </c>
       <c r="K17">
-        <v>1.010590320884266</v>
+        <v>1.027433420391468</v>
       </c>
       <c r="L17">
-        <v>0.997436240850176</v>
+        <v>1.022411308754401</v>
       </c>
       <c r="M17">
-        <v>0.9925361155577329</v>
+        <v>1.0312226341444</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9729524963465869</v>
+        <v>1.01776578610511</v>
       </c>
       <c r="D18">
-        <v>0.9973664240243129</v>
+        <v>1.024191163835686</v>
       </c>
       <c r="E18">
-        <v>0.9840557461366315</v>
+        <v>1.01917576491919</v>
       </c>
       <c r="F18">
-        <v>0.9794854967160932</v>
+        <v>1.028100948715533</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034231734667531</v>
+        <v>1.028934495592433</v>
       </c>
       <c r="J18">
-        <v>1.001077760391574</v>
+        <v>1.023991756393982</v>
       </c>
       <c r="K18">
-        <v>1.01123077179243</v>
+        <v>1.02755622396241</v>
       </c>
       <c r="L18">
-        <v>0.9981554933128139</v>
+        <v>1.022558609718706</v>
       </c>
       <c r="M18">
-        <v>0.9936679889891685</v>
+        <v>1.031452277298019</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.973352550626131</v>
+        <v>1.017842545908157</v>
       </c>
       <c r="D19">
-        <v>0.9976535697202761</v>
+        <v>1.024247716317362</v>
       </c>
       <c r="E19">
-        <v>0.9843717052279597</v>
+        <v>1.019240796822228</v>
       </c>
       <c r="F19">
-        <v>0.9799445695696322</v>
+        <v>1.028194002929247</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034332140801457</v>
+        <v>1.028948319971845</v>
       </c>
       <c r="J19">
-        <v>1.001320724300619</v>
+        <v>1.024040466059724</v>
       </c>
       <c r="K19">
-        <v>1.011448167258266</v>
+        <v>1.027598083914805</v>
       </c>
       <c r="L19">
-        <v>0.9983997435535122</v>
+        <v>1.022608835391934</v>
       </c>
       <c r="M19">
-        <v>0.9940522473821132</v>
+        <v>1.031530576429512</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9715568366332332</v>
+        <v>1.017499280341464</v>
       </c>
       <c r="D20">
-        <v>0.996364976043837</v>
+        <v>1.023994802591184</v>
       </c>
       <c r="E20">
-        <v>0.9829541106992766</v>
+        <v>1.018950009295077</v>
       </c>
       <c r="F20">
-        <v>0.9778839004933193</v>
+        <v>1.027777873700029</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033880634735508</v>
+        <v>1.028886388351433</v>
       </c>
       <c r="J20">
-        <v>1.00023000411675</v>
+        <v>1.023822603182974</v>
       </c>
       <c r="K20">
-        <v>1.010472045537203</v>
+        <v>1.027410825483091</v>
       </c>
       <c r="L20">
-        <v>0.9973034633279815</v>
+        <v>1.02238421378278</v>
       </c>
       <c r="M20">
-        <v>0.9923271113456357</v>
+        <v>1.031180391467362</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9655993543262088</v>
+        <v>1.016383683310296</v>
       </c>
       <c r="D21">
-        <v>0.9920958548303133</v>
+        <v>1.023172599305058</v>
       </c>
       <c r="E21">
-        <v>0.9782628640735901</v>
+        <v>1.018005519736376</v>
       </c>
       <c r="F21">
-        <v>0.9710464188108828</v>
+        <v>1.026425540266078</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032368437822074</v>
+        <v>1.028683187337295</v>
       </c>
       <c r="J21">
-        <v>0.9966092453989165</v>
+        <v>1.023113928993338</v>
       </c>
       <c r="K21">
-        <v>1.007228537077473</v>
+        <v>1.026801139310195</v>
       </c>
       <c r="L21">
-        <v>0.9936680967141981</v>
+        <v>1.021653939141899</v>
       </c>
       <c r="M21">
-        <v>0.9865979019942072</v>
+        <v>1.030041678994028</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9617570236397013</v>
+        <v>1.015682564679571</v>
       </c>
       <c r="D22">
-        <v>0.9893475496921857</v>
+        <v>1.022655685531479</v>
       </c>
       <c r="E22">
-        <v>0.9752467228534727</v>
+        <v>1.017412366912827</v>
       </c>
       <c r="F22">
-        <v>0.9666354138537203</v>
+        <v>1.025575686912428</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031382409635601</v>
+        <v>1.028554006067373</v>
       </c>
       <c r="J22">
-        <v>0.9942725952229003</v>
+        <v>1.022668067510752</v>
       </c>
       <c r="K22">
-        <v>1.005133029152263</v>
+        <v>1.026417125361156</v>
       </c>
       <c r="L22">
-        <v>0.9913250297011282</v>
+        <v>1.021194782964415</v>
       </c>
       <c r="M22">
-        <v>0.9828981278676986</v>
+        <v>1.029325548503906</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9638034162732921</v>
+        <v>1.0160542123109</v>
       </c>
       <c r="D23">
-        <v>0.9908107587747922</v>
+        <v>1.022929707399185</v>
       </c>
       <c r="E23">
-        <v>0.9768521697317948</v>
+        <v>1.017726743236917</v>
       </c>
       <c r="F23">
-        <v>0.9689848059688924</v>
+        <v>1.02602617141469</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031908549834225</v>
+        <v>1.028622622080673</v>
       </c>
       <c r="J23">
-        <v>0.9955171903347356</v>
+        <v>1.022904454462379</v>
       </c>
       <c r="K23">
-        <v>1.006249391295433</v>
+        <v>1.026620762699266</v>
       </c>
       <c r="L23">
-        <v>0.9925727567292644</v>
+        <v>1.021438190503691</v>
       </c>
       <c r="M23">
-        <v>0.9848690448210082</v>
+        <v>1.029705199744881</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9716551502432849</v>
+        <v>1.01751798857659</v>
       </c>
       <c r="D24">
-        <v>0.9964355045058901</v>
+        <v>1.024008587518509</v>
       </c>
       <c r="E24">
-        <v>0.9830316798427342</v>
+        <v>1.01896585534787</v>
       </c>
       <c r="F24">
-        <v>0.9779967229506447</v>
+        <v>1.027800552795604</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033905408059577</v>
+        <v>1.028889770939256</v>
       </c>
       <c r="J24">
-        <v>1.000289728719746</v>
+        <v>1.023834479256197</v>
       </c>
       <c r="K24">
-        <v>1.010525507178828</v>
+        <v>1.027421035384137</v>
       </c>
       <c r="L24">
-        <v>0.9973634781649744</v>
+        <v>1.022396456836589</v>
       </c>
       <c r="M24">
-        <v>0.992421582426283</v>
+        <v>1.03119947917402</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9803779727247407</v>
+        <v>1.01921792808667</v>
       </c>
       <c r="D25">
-        <v>1.002702338237055</v>
+        <v>1.025260703701646</v>
       </c>
       <c r="E25">
-        <v>0.9899338336170704</v>
+        <v>1.02040673384436</v>
       </c>
       <c r="F25">
-        <v>0.9880059439281993</v>
+        <v>1.029861443796837</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036077306107068</v>
+        <v>1.029193586869212</v>
       </c>
       <c r="J25">
-        <v>1.005584234390928</v>
+        <v>1.024912445355594</v>
       </c>
       <c r="K25">
-        <v>1.015258848230745</v>
+        <v>1.028346727587479</v>
       </c>
       <c r="L25">
-        <v>1.00269044995853</v>
+        <v>1.023508438825193</v>
       </c>
       <c r="M25">
-        <v>1.000793350135647</v>
+        <v>1.032932753981723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_174/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_174/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020574846168834</v>
+        <v>0.9870534475928874</v>
       </c>
       <c r="D2">
-        <v>1.026259465027548</v>
+        <v>1.007509501796473</v>
       </c>
       <c r="E2">
-        <v>1.02155833181374</v>
+        <v>0.9952430141355154</v>
       </c>
       <c r="F2">
-        <v>1.031506699814445</v>
+        <v>0.9956659336786875</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029430903032845</v>
+        <v>1.037700427994477</v>
       </c>
       <c r="J2">
-        <v>1.025771184298331</v>
+        <v>1.009628405652923</v>
       </c>
       <c r="K2">
-        <v>1.029082633784605</v>
+        <v>1.018865199394401</v>
       </c>
       <c r="L2">
-        <v>1.024395307221931</v>
+        <v>1.006769021582456</v>
       </c>
       <c r="M2">
-        <v>1.034314619661036</v>
+        <v>1.007185980999234</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021560697842817</v>
+        <v>0.9917510457121526</v>
       </c>
       <c r="D3">
-        <v>1.026984683481958</v>
+        <v>1.010897377191446</v>
       </c>
       <c r="E3">
-        <v>1.022395848360031</v>
+        <v>0.9989936078012506</v>
       </c>
       <c r="F3">
-        <v>1.03270218394147</v>
+        <v>1.001057260279525</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029600306709796</v>
+        <v>1.038819207003933</v>
       </c>
       <c r="J3">
-        <v>1.026394092810483</v>
+        <v>1.012469139754826</v>
       </c>
       <c r="K3">
-        <v>1.029615551789267</v>
+        <v>1.02139269725109</v>
       </c>
       <c r="L3">
-        <v>1.025039217348184</v>
+        <v>1.009639381819828</v>
       </c>
       <c r="M3">
-        <v>1.035317645065252</v>
+        <v>1.011676631113792</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022198891291062</v>
+        <v>0.994725812685363</v>
       </c>
       <c r="D4">
-        <v>1.027453956667276</v>
+        <v>1.013044632659778</v>
       </c>
       <c r="E4">
-        <v>1.022938399991487</v>
+        <v>1.001375023561106</v>
       </c>
       <c r="F4">
-        <v>1.033476155489049</v>
+        <v>1.004472019211938</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029708574408544</v>
+        <v>1.039516555722225</v>
       </c>
       <c r="J4">
-        <v>1.026796870787447</v>
+        <v>1.014265401746383</v>
       </c>
       <c r="K4">
-        <v>1.029959727298783</v>
+        <v>1.022988129088016</v>
       </c>
       <c r="L4">
-        <v>1.02545585119069</v>
+        <v>1.01145688154117</v>
       </c>
       <c r="M4">
-        <v>1.035966519531226</v>
+        <v>1.014516768891803</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022467254880221</v>
+        <v>0.9959614574998029</v>
       </c>
       <c r="D5">
-        <v>1.027651240124347</v>
+        <v>1.013936935065405</v>
       </c>
       <c r="E5">
-        <v>1.02316663682961</v>
+        <v>1.002365677054774</v>
       </c>
       <c r="F5">
-        <v>1.033801632493445</v>
+        <v>1.005890626982511</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029753767138342</v>
+        <v>1.0398035073962</v>
       </c>
       <c r="J5">
-        <v>1.026966129773703</v>
+        <v>1.015010856540597</v>
       </c>
       <c r="K5">
-        <v>1.030104260478778</v>
+        <v>1.023649556898412</v>
       </c>
       <c r="L5">
-        <v>1.025630998866819</v>
+        <v>1.012211748301561</v>
       </c>
       <c r="M5">
-        <v>1.036239270636496</v>
+        <v>1.015695643680804</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022512318230924</v>
+        <v>0.9961680677054672</v>
       </c>
       <c r="D6">
-        <v>1.027684364915302</v>
+        <v>1.014086156367648</v>
       </c>
       <c r="E6">
-        <v>1.023204967460064</v>
+        <v>1.002531407793576</v>
       </c>
       <c r="F6">
-        <v>1.033856287353314</v>
+        <v>1.006127842978294</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029761336245072</v>
+        <v>1.039851327637189</v>
       </c>
       <c r="J6">
-        <v>1.026994545047993</v>
+        <v>1.015135462588314</v>
       </c>
       <c r="K6">
-        <v>1.030128518939313</v>
+        <v>1.023760076840829</v>
       </c>
       <c r="L6">
-        <v>1.025660406609689</v>
+        <v>1.012337962704396</v>
       </c>
       <c r="M6">
-        <v>1.036285064658478</v>
+        <v>1.015892711864623</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022202476915362</v>
+        <v>0.9947423814083252</v>
       </c>
       <c r="D7">
-        <v>1.027456592775766</v>
+        <v>1.013056596075133</v>
       </c>
       <c r="E7">
-        <v>1.022941449122333</v>
+        <v>1.001388301450338</v>
       </c>
       <c r="F7">
-        <v>1.033480504137763</v>
+        <v>1.004491040438207</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02970917954565</v>
+        <v>1.039520414208981</v>
       </c>
       <c r="J7">
-        <v>1.026799132705604</v>
+        <v>1.014275400211248</v>
       </c>
       <c r="K7">
-        <v>1.029961659180674</v>
+        <v>1.022997003254397</v>
       </c>
       <c r="L7">
-        <v>1.025458191543697</v>
+        <v>1.011467003883326</v>
       </c>
       <c r="M7">
-        <v>1.03597016418495</v>
+        <v>1.014532579726509</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02090796087583</v>
+        <v>0.9886548239409192</v>
       </c>
       <c r="D8">
-        <v>1.02650455367644</v>
+        <v>1.008663970156751</v>
       </c>
       <c r="E8">
-        <v>1.021841245048126</v>
+        <v>0.9965202019239559</v>
       </c>
       <c r="F8">
-        <v>1.031910633920977</v>
+        <v>0.9975036758570065</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02948843266502</v>
+        <v>1.03808411954009</v>
       </c>
       <c r="J8">
-        <v>1.025981757939122</v>
+        <v>1.010597323534681</v>
       </c>
       <c r="K8">
-        <v>1.029262871781822</v>
+        <v>1.019727847592915</v>
       </c>
       <c r="L8">
-        <v>1.024612923235103</v>
+        <v>1.007747516524208</v>
       </c>
       <c r="M8">
-        <v>1.034653627979123</v>
+        <v>1.008717567956484</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018629028235771</v>
+        <v>0.9774026081141383</v>
       </c>
       <c r="D9">
-        <v>1.024827046526448</v>
+        <v>1.000562728955667</v>
       </c>
       <c r="E9">
-        <v>1.019907350405284</v>
+        <v>0.9875750567727051</v>
       </c>
       <c r="F9">
-        <v>1.029147469659692</v>
+        <v>0.984591909699028</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029089140896511</v>
+        <v>1.035342515232698</v>
       </c>
       <c r="J9">
-        <v>1.024539275869282</v>
+        <v>1.003779374210995</v>
       </c>
       <c r="K9">
-        <v>1.028026507940745</v>
+        <v>1.013646682868103</v>
       </c>
       <c r="L9">
-        <v>1.023123333902997</v>
+        <v>1.000872988855716</v>
       </c>
       <c r="M9">
-        <v>1.032332564516079</v>
+        <v>0.9979400190435489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017111215426555</v>
+        <v>0.9695058050006834</v>
       </c>
       <c r="D10">
-        <v>1.023708837850877</v>
+        <v>0.9948941621080173</v>
       </c>
       <c r="E10">
-        <v>1.018621368710492</v>
+        <v>0.9813369793505171</v>
       </c>
       <c r="F10">
-        <v>1.027307447864711</v>
+        <v>0.9755300966771105</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028816035772146</v>
+        <v>1.033362427247408</v>
       </c>
       <c r="J10">
-        <v>1.0235761964207</v>
+        <v>0.99898380600142</v>
       </c>
       <c r="K10">
-        <v>1.02719893386481</v>
+        <v>1.009356220059509</v>
       </c>
       <c r="L10">
-        <v>1.022130230277165</v>
+        <v>0.9960515794518352</v>
       </c>
       <c r="M10">
-        <v>1.030784394130465</v>
+        <v>0.9903556793477888</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016454338434648</v>
+        <v>0.9659822910952182</v>
       </c>
       <c r="D11">
-        <v>1.023224683492675</v>
+        <v>0.99236998275198</v>
       </c>
       <c r="E11">
-        <v>1.018065312921483</v>
+        <v>0.9785638680998563</v>
       </c>
       <c r="F11">
-        <v>1.02651118600082</v>
+        <v>0.9714859770713917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028696143035387</v>
+        <v>1.032466265333897</v>
       </c>
       <c r="J11">
-        <v>1.023158840244996</v>
+        <v>0.9968420687042155</v>
       </c>
       <c r="K11">
-        <v>1.02683980249817</v>
+        <v>1.007437238909753</v>
       </c>
       <c r="L11">
-        <v>1.021700202067716</v>
+        <v>0.9939016862011419</v>
       </c>
       <c r="M11">
-        <v>1.030113826331614</v>
+        <v>0.9869664328275648</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016210397172966</v>
+        <v>0.964656892626917</v>
       </c>
       <c r="D12">
-        <v>1.023044853510665</v>
+        <v>0.9914213584286165</v>
       </c>
       <c r="E12">
-        <v>1.017858887415823</v>
+        <v>0.9775223656281602</v>
       </c>
       <c r="F12">
-        <v>1.026215490224437</v>
+        <v>0.9699645643596604</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028651363952704</v>
+        <v>1.032127321681329</v>
       </c>
       <c r="J12">
-        <v>1.023003765438975</v>
+        <v>0.9960361902085769</v>
       </c>
       <c r="K12">
-        <v>1.02670628753073</v>
+        <v>1.006714778072699</v>
       </c>
       <c r="L12">
-        <v>1.021540469790147</v>
+        <v>0.9930932545693655</v>
       </c>
       <c r="M12">
-        <v>1.029864717084059</v>
+        <v>0.9856907413453119</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01626272104202</v>
+        <v>0.9649419629483074</v>
       </c>
       <c r="D13">
-        <v>1.023083427343721</v>
+        <v>0.9916253503556648</v>
       </c>
       <c r="E13">
-        <v>1.017903161018545</v>
+        <v>0.9777463000331184</v>
       </c>
       <c r="F13">
-        <v>1.026278914756068</v>
+        <v>0.9702918034100851</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028660980326695</v>
+        <v>1.032200305024697</v>
       </c>
       <c r="J13">
-        <v>1.023037031773723</v>
+        <v>0.9962095310529725</v>
       </c>
       <c r="K13">
-        <v>1.026734932256741</v>
+        <v>1.006870193784234</v>
       </c>
       <c r="L13">
-        <v>1.021574732927204</v>
+        <v>0.9932671211613635</v>
       </c>
       <c r="M13">
-        <v>1.029918153251786</v>
+        <v>0.9859651570672084</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016434173110304</v>
+        <v>0.9658730778840787</v>
       </c>
       <c r="D14">
-        <v>1.023209818552466</v>
+        <v>0.9922917976452337</v>
       </c>
       <c r="E14">
-        <v>1.018048247305572</v>
+        <v>0.9784780144825248</v>
       </c>
       <c r="F14">
-        <v>1.026486742244779</v>
+        <v>0.9713606163768479</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028692446590673</v>
+        <v>1.032438373436821</v>
       </c>
       <c r="J14">
-        <v>1.023146022733652</v>
+        <v>0.9967756687956024</v>
       </c>
       <c r="K14">
-        <v>1.026828768504885</v>
+        <v>1.007377720120621</v>
       </c>
       <c r="L14">
-        <v>1.021686998558172</v>
+        <v>0.9938350654058169</v>
       </c>
       <c r="M14">
-        <v>1.030093235508729</v>
+        <v>0.9868613318703947</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016539817295755</v>
+        <v>0.9664445376831617</v>
       </c>
       <c r="D15">
-        <v>1.02328769323592</v>
+        <v>0.992700938313868</v>
       </c>
       <c r="E15">
-        <v>1.01813765546402</v>
+        <v>0.9789273115878445</v>
       </c>
       <c r="F15">
-        <v>1.026614801050094</v>
+        <v>0.9720165602157353</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028711801460543</v>
+        <v>1.032584243380077</v>
       </c>
       <c r="J15">
-        <v>1.023213169029312</v>
+        <v>0.9971230975957354</v>
       </c>
       <c r="K15">
-        <v>1.026886568549292</v>
+        <v>1.007689128242926</v>
       </c>
       <c r="L15">
-        <v>1.021756169047472</v>
+        <v>0.9941836710226117</v>
       </c>
       <c r="M15">
-        <v>1.030201105408151</v>
+        <v>0.9874112415358975</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017154817488713</v>
+        <v>0.9697373743932094</v>
       </c>
       <c r="D16">
-        <v>1.023740970444469</v>
+        <v>0.9950601686293499</v>
       </c>
       <c r="E16">
-        <v>1.018658288859747</v>
+        <v>0.9815194522427754</v>
       </c>
       <c r="F16">
-        <v>1.027360303186138</v>
+        <v>0.9757958590891618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028823958203942</v>
+        <v>1.033421065280792</v>
       </c>
       <c r="J16">
-        <v>1.023603887922038</v>
+        <v>0.9991245264759638</v>
       </c>
       <c r="K16">
-        <v>1.027222751710706</v>
+        <v>1.009482247854268</v>
       </c>
       <c r="L16">
-        <v>1.022158769713194</v>
+        <v>0.9961929068351463</v>
       </c>
       <c r="M16">
-        <v>1.030828893255118</v>
+        <v>0.990578315262704</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01754068357344</v>
+        <v>0.9717743453801785</v>
       </c>
       <c r="D17">
-        <v>1.024025309896808</v>
+        <v>0.9965210162672088</v>
       </c>
       <c r="E17">
-        <v>1.018985078548248</v>
+        <v>0.9831257310863977</v>
       </c>
       <c r="F17">
-        <v>1.027828064891659</v>
+        <v>0.9781335081051443</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028893873242118</v>
+        <v>1.033935434900738</v>
       </c>
       <c r="J17">
-        <v>1.023848885776897</v>
+        <v>1.000362137337078</v>
       </c>
       <c r="K17">
-        <v>1.027433420391468</v>
+        <v>1.010590320884265</v>
       </c>
       <c r="L17">
-        <v>1.022411308754401</v>
+        <v>0.9974362408501757</v>
       </c>
       <c r="M17">
-        <v>1.0312226341444</v>
+        <v>0.9925361155577325</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01776578610511</v>
+        <v>0.9729524963465872</v>
       </c>
       <c r="D18">
-        <v>1.024191163835686</v>
+        <v>0.9973664240243131</v>
       </c>
       <c r="E18">
-        <v>1.01917576491919</v>
+        <v>0.9840557461366316</v>
       </c>
       <c r="F18">
-        <v>1.028100948715533</v>
+        <v>0.979485496716093</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028934495592433</v>
+        <v>1.034231734667531</v>
       </c>
       <c r="J18">
-        <v>1.023991756393982</v>
+        <v>1.001077760391574</v>
       </c>
       <c r="K18">
-        <v>1.02755622396241</v>
+        <v>1.01123077179243</v>
       </c>
       <c r="L18">
-        <v>1.022558609718706</v>
+        <v>0.9981554933128141</v>
       </c>
       <c r="M18">
-        <v>1.031452277298019</v>
+        <v>0.9936679889891684</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017842545908157</v>
+        <v>0.9733525506261311</v>
       </c>
       <c r="D19">
-        <v>1.024247716317362</v>
+        <v>0.9976535697202761</v>
       </c>
       <c r="E19">
-        <v>1.019240796822228</v>
+        <v>0.9843717052279596</v>
       </c>
       <c r="F19">
-        <v>1.028194002929247</v>
+        <v>0.9799445695696321</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028948319971845</v>
+        <v>1.034332140801456</v>
       </c>
       <c r="J19">
-        <v>1.024040466059724</v>
+        <v>1.001320724300619</v>
       </c>
       <c r="K19">
-        <v>1.027598083914805</v>
+        <v>1.011448167258266</v>
       </c>
       <c r="L19">
-        <v>1.022608835391934</v>
+        <v>0.9983997435535122</v>
       </c>
       <c r="M19">
-        <v>1.031530576429512</v>
+        <v>0.9940522473821131</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017499280341464</v>
+        <v>0.9715568366332324</v>
       </c>
       <c r="D20">
-        <v>1.023994802591184</v>
+        <v>0.9963649760438361</v>
       </c>
       <c r="E20">
-        <v>1.018950009295077</v>
+        <v>0.9829541106992755</v>
       </c>
       <c r="F20">
-        <v>1.027777873700029</v>
+        <v>0.9778839004933183</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028886388351433</v>
+        <v>1.033880634735507</v>
       </c>
       <c r="J20">
-        <v>1.023822603182974</v>
+        <v>1.000230004116749</v>
       </c>
       <c r="K20">
-        <v>1.027410825483091</v>
+        <v>1.010472045537202</v>
       </c>
       <c r="L20">
-        <v>1.02238421378278</v>
+        <v>0.9973034633279805</v>
       </c>
       <c r="M20">
-        <v>1.031180391467362</v>
+        <v>0.9923271113456348</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016383683310296</v>
+        <v>0.9655993543262089</v>
       </c>
       <c r="D21">
-        <v>1.023172599305058</v>
+        <v>0.9920958548303134</v>
       </c>
       <c r="E21">
-        <v>1.018005519736376</v>
+        <v>0.9782628640735903</v>
       </c>
       <c r="F21">
-        <v>1.026425540266078</v>
+        <v>0.9710464188108828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028683187337295</v>
+        <v>1.032368437822074</v>
       </c>
       <c r="J21">
-        <v>1.023113928993338</v>
+        <v>0.9966092453989167</v>
       </c>
       <c r="K21">
-        <v>1.026801139310195</v>
+        <v>1.007228537077473</v>
       </c>
       <c r="L21">
-        <v>1.021653939141899</v>
+        <v>0.9936680967141982</v>
       </c>
       <c r="M21">
-        <v>1.030041678994028</v>
+        <v>0.9865979019942072</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015682564679571</v>
+        <v>0.9617570236397013</v>
       </c>
       <c r="D22">
-        <v>1.022655685531479</v>
+        <v>0.9893475496921853</v>
       </c>
       <c r="E22">
-        <v>1.017412366912827</v>
+        <v>0.9752467228534727</v>
       </c>
       <c r="F22">
-        <v>1.025575686912428</v>
+        <v>0.9666354138537203</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028554006067373</v>
+        <v>1.0313824096356</v>
       </c>
       <c r="J22">
-        <v>1.022668067510752</v>
+        <v>0.9942725952229002</v>
       </c>
       <c r="K22">
-        <v>1.026417125361156</v>
+        <v>1.005133029152262</v>
       </c>
       <c r="L22">
-        <v>1.021194782964415</v>
+        <v>0.9913250297011279</v>
       </c>
       <c r="M22">
-        <v>1.029325548503906</v>
+        <v>0.9828981278676984</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0160542123109</v>
+        <v>0.9638034162732925</v>
       </c>
       <c r="D23">
-        <v>1.022929707399185</v>
+        <v>0.9908107587747925</v>
       </c>
       <c r="E23">
-        <v>1.017726743236917</v>
+        <v>0.9768521697317949</v>
       </c>
       <c r="F23">
-        <v>1.02602617141469</v>
+        <v>0.9689848059688932</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028622622080673</v>
+        <v>1.031908549834225</v>
       </c>
       <c r="J23">
-        <v>1.022904454462379</v>
+        <v>0.995517190334736</v>
       </c>
       <c r="K23">
-        <v>1.026620762699266</v>
+        <v>1.006249391295433</v>
       </c>
       <c r="L23">
-        <v>1.021438190503691</v>
+        <v>0.9925727567292648</v>
       </c>
       <c r="M23">
-        <v>1.029705199744881</v>
+        <v>0.9848690448210091</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01751798857659</v>
+        <v>0.9716551502432857</v>
       </c>
       <c r="D24">
-        <v>1.024008587518509</v>
+        <v>0.9964355045058909</v>
       </c>
       <c r="E24">
-        <v>1.01896585534787</v>
+        <v>0.9830316798427355</v>
       </c>
       <c r="F24">
-        <v>1.027800552795604</v>
+        <v>0.977996722950646</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028889770939256</v>
+        <v>1.033905408059577</v>
       </c>
       <c r="J24">
-        <v>1.023834479256197</v>
+        <v>1.000289728719747</v>
       </c>
       <c r="K24">
-        <v>1.027421035384137</v>
+        <v>1.010525507178829</v>
       </c>
       <c r="L24">
-        <v>1.022396456836589</v>
+        <v>0.9973634781649757</v>
       </c>
       <c r="M24">
-        <v>1.03119947917402</v>
+        <v>0.9924215824262844</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01921792808667</v>
+        <v>0.9803779727247413</v>
       </c>
       <c r="D25">
-        <v>1.025260703701646</v>
+        <v>1.002702338237055</v>
       </c>
       <c r="E25">
-        <v>1.02040673384436</v>
+        <v>0.989933833617071</v>
       </c>
       <c r="F25">
-        <v>1.029861443796837</v>
+        <v>0.9880059439281996</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029193586869212</v>
+        <v>1.036077306107069</v>
       </c>
       <c r="J25">
-        <v>1.024912445355594</v>
+        <v>1.005584234390929</v>
       </c>
       <c r="K25">
-        <v>1.028346727587479</v>
+        <v>1.015258848230746</v>
       </c>
       <c r="L25">
-        <v>1.023508438825193</v>
+        <v>1.002690449958531</v>
       </c>
       <c r="M25">
-        <v>1.032932753981723</v>
+        <v>1.000793350135648</v>
       </c>
     </row>
   </sheetData>
